--- a/data/raw/comptages_terrain/modeles/reference_comptage_terrain_donnees_brutes.xlsx
+++ b/data/raw/comptages_terrain/modeles/reference_comptage_terrain_donnees_brutes.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12180" firstSheet="1"/>
+    <workbookView windowWidth="27945" windowHeight="12180" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="activites_loisirs" sheetId="4" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="127">
   <si>
     <t>Champ 1</t>
   </si>
@@ -299,6 +299,9 @@
   </si>
   <si>
     <t>Noms des observateurs</t>
+  </si>
+  <si>
+    <t>Texte</t>
   </si>
   <si>
     <t>Personnes sur la plage</t>
@@ -1943,8 +1946,8 @@
   <sheetPr/>
   <dimension ref="A1:G18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="6"/>
@@ -2350,8 +2353,8 @@
   <sheetPr/>
   <dimension ref="A1:XFC12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
@@ -2577,18 +2580,18 @@
       </c>
       <c r="F11" s="13"/>
     </row>
-    <row r="12" s="11" customFormat="1" ht="45" spans="1:16383">
+    <row r="12" s="11" customFormat="1" ht="30" spans="1:16383">
       <c r="A12" s="4" t="s">
         <v>6</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>6</v>
+        <v>50</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>50</v>
+        <v>85</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>51</v>
+        <v>16</v>
       </c>
       <c r="E12" s="4" t="s">
         <v>16</v>
@@ -19041,10 +19044,10 @@
     </row>
     <row r="3" ht="41" customHeight="1" spans="1:7">
       <c r="A3" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C3" s="7" t="s">
         <v>15</v>
@@ -19060,10 +19063,10 @@
     </row>
     <row r="4" ht="41" customHeight="1" spans="1:7">
       <c r="A4" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C4" s="7" t="s">
         <v>15</v>
@@ -19079,10 +19082,10 @@
     </row>
     <row r="5" ht="41" customHeight="1" spans="1:7">
       <c r="A5" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C5" s="7" t="s">
         <v>15</v>
@@ -19098,10 +19101,10 @@
     </row>
     <row r="6" ht="41" customHeight="1" spans="1:7">
       <c r="A6" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C6" s="7" t="s">
         <v>15</v>
@@ -19120,7 +19123,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C7" s="7" t="s">
         <v>51</v>
@@ -19203,34 +19206,34 @@
     </row>
     <row r="3" ht="38" customHeight="1" spans="1:7">
       <c r="A3" s="4" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E3" s="4" t="s">
         <v>16</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="G3" s="4"/>
     </row>
     <row r="4" ht="38" customHeight="1" spans="1:7">
       <c r="A4" s="4" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>15</v>
@@ -19245,13 +19248,13 @@
     </row>
     <row r="5" ht="38" customHeight="1" spans="1:7">
       <c r="A5" s="4" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>15</v>
@@ -19266,13 +19269,13 @@
     </row>
     <row r="6" ht="38" customHeight="1" spans="1:7">
       <c r="A6" s="4" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>15</v>
@@ -19287,13 +19290,13 @@
     </row>
     <row r="7" ht="38" customHeight="1" spans="1:7">
       <c r="A7" s="4" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>15</v>
@@ -19308,13 +19311,13 @@
     </row>
     <row r="8" ht="38" customHeight="1" spans="1:7">
       <c r="A8" s="4" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>15</v>
@@ -19329,13 +19332,13 @@
     </row>
     <row r="9" ht="38" customHeight="1" spans="1:7">
       <c r="A9" s="4" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>15</v>
@@ -19350,13 +19353,13 @@
     </row>
     <row r="10" ht="38" customHeight="1" spans="1:7">
       <c r="A10" s="4" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>15</v>
@@ -19371,13 +19374,13 @@
     </row>
     <row r="11" ht="38" customHeight="1" spans="1:7">
       <c r="A11" s="4" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D11" s="4" t="s">
         <v>15</v>
@@ -19392,13 +19395,13 @@
     </row>
     <row r="12" ht="38" customHeight="1" spans="1:7">
       <c r="A12" s="4" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D12" s="4" t="s">
         <v>15</v>
@@ -19413,13 +19416,13 @@
     </row>
     <row r="13" ht="38" customHeight="1" spans="1:7">
       <c r="A13" s="6" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D13" s="4" t="s">
         <v>15</v>
@@ -19434,13 +19437,13 @@
     </row>
     <row r="14" ht="38" customHeight="1" spans="1:7">
       <c r="A14" s="6" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D14" s="4" t="s">
         <v>15</v>
@@ -19455,13 +19458,13 @@
     </row>
     <row r="15" ht="38" customHeight="1" spans="1:7">
       <c r="A15" s="6" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D15" s="4" t="s">
         <v>15</v>
@@ -19476,13 +19479,13 @@
     </row>
     <row r="16" ht="38" customHeight="1" spans="1:7">
       <c r="A16" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D16" s="4" t="s">
         <v>15</v>
@@ -19497,13 +19500,13 @@
     </row>
     <row r="17" ht="38" customHeight="1" spans="1:7">
       <c r="A17" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D17" s="4" t="s">
         <v>15</v>
@@ -19518,13 +19521,13 @@
     </row>
     <row r="18" ht="38" customHeight="1" spans="1:7">
       <c r="A18" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D18" s="4" t="s">
         <v>15</v>
@@ -19539,13 +19542,13 @@
     </row>
     <row r="19" ht="38" customHeight="1" spans="1:7">
       <c r="A19" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D19" s="4" t="s">
         <v>15</v>
@@ -19560,13 +19563,13 @@
     </row>
     <row r="20" ht="38" customHeight="1" spans="1:7">
       <c r="A20" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D20" s="4" t="s">
         <v>15</v>
@@ -19581,13 +19584,13 @@
     </row>
     <row r="21" ht="38" customHeight="1" spans="1:7">
       <c r="A21" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D21" s="4" t="s">
         <v>15</v>
@@ -19608,7 +19611,7 @@
         <v>6</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D22" s="4" t="s">
         <v>51</v>

--- a/data/raw/comptages_terrain/modeles/reference_comptage_terrain_donnees_brutes.xlsx
+++ b/data/raw/comptages_terrain/modeles/reference_comptage_terrain_donnees_brutes.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12180" activeTab="4"/>
+    <workbookView windowWidth="27945" windowHeight="13395" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="activites_loisirs" sheetId="4" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="451" uniqueCount="141">
   <si>
     <t>Champ 1</t>
   </si>
@@ -52,6 +52,9 @@
     <t>Fourchette de valeur / Modalités</t>
   </si>
   <si>
+    <t>Shunt</t>
+  </si>
+  <si>
     <t>Commentaires</t>
   </si>
   <si>
@@ -68,6 +71,9 @@
   </si>
   <si>
     <t>00:00 à 23:59</t>
+  </si>
+  <si>
+    <t>Non</t>
   </si>
   <si>
     <t>Sports nautiques non motorisés</t>
@@ -220,6 +226,9 @@
     <t>121 modalités</t>
   </si>
   <si>
+    <t>Oui</t>
+  </si>
+  <si>
     <t>Nom en Corse et pas en français, vérifier avec la référence des secteurs</t>
   </si>
   <si>
@@ -235,18 +244,21 @@
     <t>qualitative ordinale</t>
   </si>
   <si>
-    <t>"F0" : 1 km/h
-"F1" : 1 à 5 km/h 
-"F2" : 6 à 11 km/h 
-"F3" : 12 à 19 km/h 
-"F4" : 20 à 28 km/h
-"F5" :  29 à 38 km/h
-"F6" : 39 à 49 km/h
-"F7" : 50 à 61 km/h
- "F8" : 62 à 74 km/h
-"F9" : 75 à 88 km/h
-"F10" : 89 à 102 km/h
-"F11" : 103 à 117 km/h
+    <t>F0 ; F1 ; F2 ; F3 ; F4 ; F5 ; F6 ; F7 ; F8 ; F9 ; F10 ; F11 ; F12</t>
+  </si>
+  <si>
+    <t>"F0" : 1 km/h,
+"F1" : 1 à 5 km/h,
+"F2" : 6 à 11 km/h,
+"F3" : 12 à 19 km/h, 
+"F4" : 20 à 28 km/h,
+"F5" :  29 à 38 km/h,
+"F6" : 39 à 49 km/h,
+"F7" : 50 à 61 km/h,
+ "F8" : 62 à 74 km/h,
+"F9" : 75 à 88 km/h,
+"F10" : 89 à 102 km/h,
+"F11" : 103 à 117 km/h,
 "F12" : 118 et plus km/h</t>
   </si>
   <si>
@@ -265,7 +277,7 @@
     <t>%</t>
   </si>
   <si>
-    <t>0-10%, 10-25%, 25-50%, 50-75%, 75-100%</t>
+    <t>0-10 ; 10-25 ; 25-50 ; 50-75 ; 75-100</t>
   </si>
   <si>
     <t>Temperature_sol</t>
@@ -283,13 +295,13 @@
     <t>Direction du vent</t>
   </si>
   <si>
-    <t>N, S, E, O, NE, NO, SE, SO, ESE, SSE, SSO, OSO, ONO, NNO, NNE, ENE</t>
-  </si>
-  <si>
     <t>Direction_houle</t>
   </si>
   <si>
     <t>Direction de la houle</t>
+  </si>
+  <si>
+    <t>N ; S ; E ; O ; NE ; NO ; SE ; SO ; ESE ; SSE ; SSO ; OSO ; ONO ; NNO ; NNE ; ENE</t>
   </si>
   <si>
     <t>Observateurs</t>
@@ -331,7 +343,7 @@
     <t>Type de bateau</t>
   </si>
   <si>
-    <t>Moteur, Voilier</t>
+    <t>Moteur ; Voilier</t>
   </si>
   <si>
     <t>L &lt; 8 m</t>
@@ -430,7 +442,7 @@
     <t>Nom de la société qui débarque les passagers sur la zone de débarquement du secteur observé</t>
   </si>
   <si>
-    <t>Autres activités, Autres sociétés, Cap Agriates, Gaïa promenade, Jet ski, Jo le Taxi, Kayak, Mare e Stagnu, Paddle, Particuliers, Perlanera, Quadrimarant, Spassighj'Agriate, Speed boat, Speed mare, Taxi boat (popeye/saleccia), Taxi beach, Taxi plage, U Saleccia</t>
+    <t>Autres activités ; Autres sociétés ; Cap Agriates ; Gaïa promenade ; Jet ski ; Jo le Taxi ; Kayak ; Mare e Stagnu ; Paddle ; Particuliers ; Perlanera ; Quadrimarant ; Spassighj'Agriate ; Speed boat ; Speed mare ; Taxi boat (popeye/saleccia) ; Taxi beach ; Taxi plage ; U Saleccia</t>
   </si>
   <si>
     <t>Nombre arrivées</t>
@@ -1661,15 +1673,16 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table_36" displayName="Table_36" ref="A1:G18" totalsRowShown="0">
-  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:G18" etc:filterBottomFollowUsedRange="0"/>
-  <tableColumns count="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table_36" displayName="Table_36" ref="A1:H18" totalsRowShown="0">
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:H18" etc:filterBottomFollowUsedRange="0"/>
+  <tableColumns count="8">
     <tableColumn id="1" name="Champ 1" dataDxfId="0"/>
     <tableColumn id="8" name="Champ 2" dataDxfId="1"/>
     <tableColumn id="2" name="Description" dataDxfId="2"/>
     <tableColumn id="3" name="Format" dataDxfId="3"/>
     <tableColumn id="4" name="Unité" dataDxfId="4"/>
     <tableColumn id="5" name="Fourchette de valeur / Modalités" dataDxfId="5"/>
+    <tableColumn id="6" name="Shunt"/>
     <tableColumn id="7" name="Commentaires" dataDxfId="6"/>
   </tableColumns>
   <tableStyleInfo name="TableStylePreset3_Accent3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1677,14 +1690,15 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A1:F12" totalsRowShown="0">
-  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:F12" etc:filterBottomFollowUsedRange="0"/>
-  <tableColumns count="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A1:G12" totalsRowShown="0">
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:G12" etc:filterBottomFollowUsedRange="0"/>
+  <tableColumns count="7">
     <tableColumn id="1" name="Champ" dataDxfId="7"/>
     <tableColumn id="2" name="Description" dataDxfId="8"/>
     <tableColumn id="3" name="Format" dataDxfId="9"/>
     <tableColumn id="4" name="Unité" dataDxfId="10"/>
     <tableColumn id="5" name="Fourchette de valeur / Modalités"/>
+    <tableColumn id="6" name="Shunt"/>
     <tableColumn id="7" name="Commentaires" dataDxfId="11"/>
   </tableColumns>
   <tableStyleInfo name="TableStylePreset3_Accent3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1692,14 +1706,15 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table_3" displayName="Table_3" ref="A1:F7" totalsRowShown="0">
-  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:F7" etc:filterBottomFollowUsedRange="0"/>
-  <tableColumns count="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table_3" displayName="Table_3" ref="A1:G7" totalsRowShown="0">
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:G7" etc:filterBottomFollowUsedRange="0"/>
+  <tableColumns count="7">
     <tableColumn id="1" name="Champ" dataDxfId="12"/>
     <tableColumn id="2" name="Description" dataDxfId="13"/>
     <tableColumn id="3" name="Format" dataDxfId="14"/>
     <tableColumn id="4" name="Unité" dataDxfId="15"/>
     <tableColumn id="5" name="Fourchette de valeur / Modalités" dataDxfId="16"/>
+    <tableColumn id="6" name="Shunt"/>
     <tableColumn id="7" name="Commentaires" dataDxfId="17"/>
   </tableColumns>
   <tableStyleInfo name="TableStylePreset3_Accent3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1707,15 +1722,16 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table2" displayName="Table2" ref="A1:G22" totalsRowShown="0">
-  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:G22" etc:filterBottomFollowUsedRange="0"/>
-  <tableColumns count="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table2" displayName="Table2" ref="A1:H22" totalsRowShown="0">
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:H22" etc:filterBottomFollowUsedRange="0"/>
+  <tableColumns count="8">
     <tableColumn id="1" name="Champ 1"/>
     <tableColumn id="6" name="Champ 2"/>
     <tableColumn id="2" name="Description" dataDxfId="18"/>
     <tableColumn id="3" name="Format" dataDxfId="19"/>
     <tableColumn id="4" name="Unité" dataDxfId="20"/>
     <tableColumn id="5" name="Fourchette de valeur / Modalités" dataDxfId="21"/>
+    <tableColumn id="8" name="Shunt"/>
     <tableColumn id="7" name="Commentaires" dataDxfId="22"/>
   </tableColumns>
   <tableStyleInfo name="TableStylePreset3_Accent3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1723,14 +1739,15 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Table_37" displayName="Table_37" ref="A1:F8" totalsRowShown="0">
-  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:F8" etc:filterBottomFollowUsedRange="0"/>
-  <tableColumns count="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Table_37" displayName="Table_37" ref="A1:G8" totalsRowShown="0">
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:G8" etc:filterBottomFollowUsedRange="0"/>
+  <tableColumns count="7">
     <tableColumn id="1" name="Champ" dataDxfId="23"/>
     <tableColumn id="2" name="Description"/>
     <tableColumn id="3" name="Format"/>
     <tableColumn id="4" name="Unité"/>
     <tableColumn id="5" name="Fourchette de valeur / Modalités"/>
+    <tableColumn id="7" name="Shunt"/>
     <tableColumn id="6" name="Commentaires"/>
   </tableColumns>
   <tableStyleInfo name="TableStylePreset3_Accent3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1995,24 +2012,24 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G18"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G1" sqref="G$1:G$1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="24.5714285714286" customWidth="1"/>
     <col min="2" max="2" width="21.2857142857143" customWidth="1"/>
     <col min="3" max="3" width="42.4285714285714" customWidth="1"/>
     <col min="4" max="4" width="22.8571428571429" customWidth="1"/>
     <col min="5" max="5" width="16.8571428571429" customWidth="1"/>
-    <col min="6" max="6" width="39.4285714285714" customWidth="1"/>
-    <col min="7" max="7" width="24.5714285714286" customWidth="1"/>
+    <col min="6" max="7" width="39.4285714285714" customWidth="1"/>
+    <col min="8" max="8" width="24.5714285714286" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="31" customHeight="1" spans="1:7">
+    <row r="1" ht="31" customHeight="1" spans="1:8">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2034,361 +2051,417 @@
       <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="2" ht="36" customHeight="1" spans="1:7">
+    <row r="2" ht="36" customHeight="1" spans="1:8">
       <c r="A2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" s="4"/>
+    </row>
+    <row r="3" ht="36" customHeight="1" spans="1:8">
+      <c r="A3" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" s="4"/>
+    </row>
+    <row r="4" ht="36" customHeight="1" spans="1:8">
+      <c r="A4" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" s="4"/>
+    </row>
+    <row r="5" ht="36" customHeight="1" spans="1:8">
+      <c r="A5" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H5" s="4"/>
+    </row>
+    <row r="6" ht="36" customHeight="1" spans="1:8">
+      <c r="A6" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H6" s="4"/>
+    </row>
+    <row r="7" ht="36" customHeight="1" spans="1:8">
+      <c r="A7" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H7" s="4"/>
+    </row>
+    <row r="8" ht="36" customHeight="1" spans="1:8">
+      <c r="A8" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H8" s="4"/>
+    </row>
+    <row r="9" ht="36" customHeight="1" spans="1:8">
+      <c r="A9" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H9" s="4"/>
+    </row>
+    <row r="10" ht="36" customHeight="1" spans="1:8">
+      <c r="A10" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H10" s="4"/>
+    </row>
+    <row r="11" ht="36" customHeight="1" spans="1:8">
+      <c r="A11" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H11" s="4"/>
+    </row>
+    <row r="12" ht="36" customHeight="1" spans="1:8">
+      <c r="A12" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H12" s="4"/>
+    </row>
+    <row r="13" ht="36" customHeight="1" spans="1:8">
+      <c r="A13" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H13" s="4"/>
+    </row>
+    <row r="14" ht="36" customHeight="1" spans="1:8">
+      <c r="A14" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H14" s="4"/>
+    </row>
+    <row r="15" ht="36" customHeight="1" spans="1:8">
+      <c r="A15" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H15" s="4"/>
+    </row>
+    <row r="16" ht="36" customHeight="1" spans="1:8">
+      <c r="A16" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H16" s="4"/>
+    </row>
+    <row r="17" ht="36" customHeight="1" spans="1:8">
+      <c r="A17" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H17" s="4"/>
+    </row>
+    <row r="18" ht="36" customHeight="1" spans="1:8">
+      <c r="A18" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B18" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" s="4"/>
-    </row>
-    <row r="3" ht="36" customHeight="1" spans="1:7">
-      <c r="A3" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" s="4" t="s">
+      <c r="C18" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G18" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="G3" s="4"/>
-    </row>
-    <row r="4" ht="36" customHeight="1" spans="1:7">
-      <c r="A4" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="G4" s="4"/>
-    </row>
-    <row r="5" ht="36" customHeight="1" spans="1:7">
-      <c r="A5" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="G5" s="4"/>
-    </row>
-    <row r="6" ht="36" customHeight="1" spans="1:7">
-      <c r="A6" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="G6" s="4"/>
-    </row>
-    <row r="7" ht="36" customHeight="1" spans="1:7">
-      <c r="A7" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="G7" s="4"/>
-    </row>
-    <row r="8" ht="36" customHeight="1" spans="1:7">
-      <c r="A8" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="G8" s="4"/>
-    </row>
-    <row r="9" ht="36" customHeight="1" spans="1:7">
-      <c r="A9" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="G9" s="4"/>
-    </row>
-    <row r="10" ht="36" customHeight="1" spans="1:7">
-      <c r="A10" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="G10" s="4"/>
-    </row>
-    <row r="11" ht="36" customHeight="1" spans="1:7">
-      <c r="A11" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="G11" s="4"/>
-    </row>
-    <row r="12" ht="36" customHeight="1" spans="1:7">
-      <c r="A12" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="G12" s="4"/>
-    </row>
-    <row r="13" ht="36" customHeight="1" spans="1:7">
-      <c r="A13" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="G13" s="4"/>
-    </row>
-    <row r="14" ht="36" customHeight="1" spans="1:7">
-      <c r="A14" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F14" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="G14" s="4"/>
-    </row>
-    <row r="15" ht="36" customHeight="1" spans="1:7">
-      <c r="A15" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F15" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="G15" s="4"/>
-    </row>
-    <row r="16" ht="36" customHeight="1" spans="1:7">
-      <c r="A16" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E16" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F16" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="G16" s="4"/>
-    </row>
-    <row r="17" ht="36" customHeight="1" spans="1:7">
-      <c r="A17" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E17" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F17" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="G17" s="4"/>
-    </row>
-    <row r="18" ht="36" customHeight="1" spans="1:7">
-      <c r="A18" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="E18" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F18" s="4"/>
-      <c r="G18" s="4"/>
+      <c r="H18" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2402,9 +2475,9 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:XFC12"/>
+  <dimension ref="A1:XFD12"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
       <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
@@ -2414,19 +2487,19 @@
     <col min="2" max="2" width="34.2761904761905" style="11" customWidth="1"/>
     <col min="3" max="3" width="15.4571428571429" style="11" customWidth="1"/>
     <col min="4" max="4" width="16.8571428571429" style="11" customWidth="1"/>
-    <col min="5" max="5" width="45.7142857142857" style="11" customWidth="1"/>
-    <col min="6" max="6" width="31" style="11" customWidth="1"/>
-    <col min="7" max="7" width="18.7142857142857" style="11" customWidth="1"/>
-    <col min="8" max="8" width="15.5714285714286" style="11" customWidth="1"/>
-    <col min="9" max="9" width="17" style="11" customWidth="1"/>
-    <col min="10" max="10" width="14.2857142857143" style="11" customWidth="1"/>
-    <col min="11" max="16382" width="9.14285714285714" style="11"/>
-    <col min="16383" max="16384" width="9.14285714285714" style="13"/>
+    <col min="5" max="6" width="55" style="11" customWidth="1"/>
+    <col min="7" max="7" width="35.2857142857143" style="11" customWidth="1"/>
+    <col min="8" max="8" width="18.7142857142857" style="11" customWidth="1"/>
+    <col min="9" max="9" width="15.5714285714286" style="11" customWidth="1"/>
+    <col min="10" max="10" width="17" style="11" customWidth="1"/>
+    <col min="11" max="11" width="14.2857142857143" style="11" customWidth="1"/>
+    <col min="12" max="16383" width="9.14285714285714" style="11"/>
+    <col min="16384" max="16384" width="9.14285714285714" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" s="11" customFormat="1" ht="36" customHeight="1" spans="1:10">
+    <row r="1" s="11" customFormat="1" ht="36" customHeight="1" spans="1:11">
       <c r="A1" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>2</v>
@@ -2443,212 +2516,251 @@
       <c r="F1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="15"/>
-      <c r="J1" s="16"/>
+      <c r="G1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="15"/>
+      <c r="K1" s="16"/>
     </row>
-    <row r="2" s="11" customFormat="1" ht="103" customHeight="1" spans="1:9">
+    <row r="2" s="11" customFormat="1" ht="103" customHeight="1" spans="1:10">
       <c r="A2" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="J2" s="15"/>
+    </row>
+    <row r="3" s="11" customFormat="1" ht="90" customHeight="1" spans="1:11">
+      <c r="A3" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="K3" s="15"/>
+    </row>
+    <row r="4" s="11" customFormat="1" ht="90" customHeight="1" spans="1:11">
+      <c r="A4" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" s="4"/>
+      <c r="K4" s="15"/>
+    </row>
+    <row r="5" s="11" customFormat="1" ht="226" customHeight="1" spans="1:7">
+      <c r="A5" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="6" s="11" customFormat="1" ht="97" customHeight="1" spans="1:7">
+      <c r="A6" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" s="4"/>
+    </row>
+    <row r="7" s="11" customFormat="1" ht="98" customHeight="1" spans="1:7">
+      <c r="A7" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G7" s="4"/>
+    </row>
+    <row r="8" s="11" customFormat="1" ht="70" customHeight="1" spans="1:7">
+      <c r="A8" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G8" s="4"/>
+    </row>
+    <row r="9" s="11" customFormat="1" ht="70" customHeight="1" spans="1:7">
+      <c r="A9" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G9" s="4"/>
+    </row>
+    <row r="10" s="11" customFormat="1" ht="70" customHeight="1" spans="1:7">
+      <c r="A10" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G10" s="4"/>
+    </row>
+    <row r="11" s="11" customFormat="1" ht="70" customHeight="1" spans="1:7">
+      <c r="A11" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="B11" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="C11" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="D11" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="E11" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G11" s="14"/>
+    </row>
+    <row r="12" s="12" customFormat="1" ht="57" customHeight="1" spans="1:16384">
+      <c r="A12" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C12" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="I2" s="15"/>
-    </row>
-    <row r="3" s="11" customFormat="1" ht="90" customHeight="1" spans="1:10">
-      <c r="A3" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="J3" s="15"/>
-    </row>
-    <row r="4" s="11" customFormat="1" ht="90" customHeight="1" spans="1:10">
-      <c r="A4" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F4" s="4"/>
-      <c r="J4" s="15"/>
-    </row>
-    <row r="5" s="11" customFormat="1" ht="226" customHeight="1" spans="1:6">
-      <c r="A5" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="F5" s="4"/>
-    </row>
-    <row r="6" s="11" customFormat="1" ht="97" customHeight="1" spans="1:6">
-      <c r="A6" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-    </row>
-    <row r="7" s="11" customFormat="1" ht="98" customHeight="1" spans="1:6">
-      <c r="A7" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="F7" s="4"/>
-    </row>
-    <row r="8" s="11" customFormat="1" ht="70" customHeight="1" spans="1:6">
-      <c r="A8" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F8" s="4"/>
-    </row>
-    <row r="9" s="11" customFormat="1" ht="70" customHeight="1" spans="1:6">
-      <c r="A9" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="F9" s="4"/>
-    </row>
-    <row r="10" s="11" customFormat="1" ht="70" customHeight="1" spans="1:6">
-      <c r="A10" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="F10" s="4"/>
-    </row>
-    <row r="11" s="11" customFormat="1" ht="70" customHeight="1" spans="1:6">
-      <c r="A11" s="14" t="s">
-        <v>82</v>
-      </c>
-      <c r="B11" s="14" t="s">
-        <v>83</v>
-      </c>
-      <c r="C11" s="14" t="s">
-        <v>60</v>
-      </c>
-      <c r="D11" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="E11" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="F11" s="14"/>
-    </row>
-    <row r="12" s="12" customFormat="1" ht="42" customHeight="1" spans="1:16383">
-      <c r="A12" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>51</v>
-      </c>
       <c r="D12" s="4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F12" s="4"/>
-      <c r="G12" s="15"/>
+        <v>18</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G12" s="4"/>
       <c r="H12" s="15"/>
       <c r="I12" s="15"/>
       <c r="J12" s="15"/>
@@ -19024,7 +19136,8 @@
       <c r="XEZ12" s="15"/>
       <c r="XFA12" s="15"/>
       <c r="XFB12" s="15"/>
-      <c r="XFC12" s="17"/>
+      <c r="XFC12" s="15"/>
+      <c r="XFD12" s="17"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -19038,25 +19151,25 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="6" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="6" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="35.8571428571429" customWidth="1"/>
     <col min="2" max="2" width="34" customWidth="1"/>
     <col min="3" max="3" width="22.8571428571429" customWidth="1"/>
     <col min="4" max="4" width="16.8571428571429" customWidth="1"/>
-    <col min="5" max="5" width="37.8571428571429" customWidth="1"/>
-    <col min="6" max="6" width="24.5714285714286" customWidth="1"/>
+    <col min="5" max="6" width="37.8571428571429" customWidth="1"/>
+    <col min="7" max="7" width="24.5714285714286" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="31" customHeight="1" spans="1:6">
+    <row r="1" ht="31" customHeight="1" spans="1:7">
       <c r="A1" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>2</v>
@@ -19073,116 +19186,141 @@
       <c r="F1" s="2" t="s">
         <v>6</v>
       </c>
+      <c r="G1" s="2" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="2" ht="41" customHeight="1" spans="1:7">
+    <row r="2" ht="41" customHeight="1" spans="1:8">
       <c r="A2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="4"/>
+      <c r="H2" s="5"/>
+    </row>
+    <row r="3" ht="41" customHeight="1" spans="1:8">
+      <c r="A3" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" s="4"/>
+      <c r="H3" s="5"/>
+    </row>
+    <row r="4" ht="41" customHeight="1" spans="1:8">
+      <c r="A4" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" s="4"/>
+      <c r="H4" s="5"/>
+    </row>
+    <row r="5" ht="41" customHeight="1" spans="1:8">
+      <c r="A5" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5" s="4"/>
+      <c r="H5" s="5"/>
+    </row>
+    <row r="6" ht="41" customHeight="1" spans="1:8">
+      <c r="A6" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" s="4"/>
+      <c r="H6" s="5"/>
+    </row>
+    <row r="7" ht="41" customHeight="1" spans="1:8">
+      <c r="A7" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" s="4"/>
-      <c r="G2" s="5"/>
-    </row>
-    <row r="3" ht="41" customHeight="1" spans="1:7">
-      <c r="A3" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F3" s="4"/>
-      <c r="G3" s="5"/>
-    </row>
-    <row r="4" ht="41" customHeight="1" spans="1:7">
-      <c r="A4" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F4" s="4"/>
-      <c r="G4" s="5"/>
-    </row>
-    <row r="5" ht="41" customHeight="1" spans="1:7">
-      <c r="A5" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F5" s="4"/>
-      <c r="G5" s="5"/>
-    </row>
-    <row r="6" ht="41" customHeight="1" spans="1:7">
-      <c r="A6" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F6" s="4"/>
-      <c r="G6" s="5"/>
-    </row>
-    <row r="7" ht="41" customHeight="1" spans="1:7">
-      <c r="A7" s="3" t="s">
-        <v>6</v>
-      </c>
       <c r="B7" s="3" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="D7" s="3"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="5"/>
+        <v>53</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G7" s="6"/>
+      <c r="H7" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -19196,23 +19334,23 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G22"/>
+  <dimension ref="A1:H22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="2" width="21.3428571428571" customWidth="1"/>
     <col min="3" max="3" width="46.2190476190476" customWidth="1"/>
     <col min="4" max="4" width="25.1428571428571" customWidth="1"/>
     <col min="5" max="5" width="21.1619047619048" customWidth="1"/>
-    <col min="6" max="6" width="38.152380952381" customWidth="1"/>
-    <col min="7" max="7" width="21.1619047619048" customWidth="1"/>
+    <col min="6" max="7" width="38.152380952381" customWidth="1"/>
+    <col min="8" max="8" width="21.1619047619048" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="42" customHeight="1" spans="1:7">
+    <row r="1" ht="42" customHeight="1" spans="1:8">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -19234,447 +19372,513 @@
       <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="2" ht="38" customHeight="1" spans="1:7">
+    <row r="2" ht="38" customHeight="1" spans="1:8">
       <c r="A2" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" s="7"/>
+    </row>
+    <row r="3" ht="38" customHeight="1" spans="1:8">
+      <c r="A3" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" s="4"/>
+    </row>
+    <row r="4" ht="38" customHeight="1" spans="1:8">
+      <c r="A4" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" s="4"/>
+    </row>
+    <row r="5" ht="38" customHeight="1" spans="1:8">
+      <c r="A5" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H5" s="4"/>
+    </row>
+    <row r="6" ht="38" customHeight="1" spans="1:8">
+      <c r="A6" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H6" s="4"/>
+    </row>
+    <row r="7" ht="38" customHeight="1" spans="1:8">
+      <c r="A7" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H7" s="4"/>
+    </row>
+    <row r="8" ht="38" customHeight="1" spans="1:8">
+      <c r="A8" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H8" s="4"/>
+    </row>
+    <row r="9" ht="38" customHeight="1" spans="1:8">
+      <c r="A9" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H9" s="4"/>
+    </row>
+    <row r="10" ht="38" customHeight="1" spans="1:8">
+      <c r="A10" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H10" s="4"/>
+    </row>
+    <row r="11" ht="38" customHeight="1" spans="1:8">
+      <c r="A11" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H11" s="9"/>
+    </row>
+    <row r="12" ht="38" customHeight="1" spans="1:8">
+      <c r="A12" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H12" s="9"/>
+    </row>
+    <row r="13" ht="38" customHeight="1" spans="1:8">
+      <c r="A13" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H13" s="9"/>
+    </row>
+    <row r="14" ht="38" customHeight="1" spans="1:8">
+      <c r="A14" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H14" s="7"/>
+    </row>
+    <row r="15" ht="38" customHeight="1" spans="1:8">
+      <c r="A15" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H15" s="7"/>
+    </row>
+    <row r="16" ht="38" customHeight="1" spans="1:8">
+      <c r="A16" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H16" s="7"/>
+    </row>
+    <row r="17" ht="38" customHeight="1" spans="1:8">
+      <c r="A17" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H17" s="7"/>
+    </row>
+    <row r="18" ht="38" customHeight="1" spans="1:8">
+      <c r="A18" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H18" s="7"/>
+    </row>
+    <row r="19" ht="38" customHeight="1" spans="1:8">
+      <c r="A19" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H19" s="7"/>
+    </row>
+    <row r="20" ht="38" customHeight="1" spans="1:8">
+      <c r="A20" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H20" s="7"/>
+    </row>
+    <row r="21" ht="38" customHeight="1" spans="1:8">
+      <c r="A21" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H21" s="7"/>
+    </row>
+    <row r="22" ht="38" customHeight="1" spans="1:8">
+      <c r="A22" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B22" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" s="7"/>
-    </row>
-    <row r="3" ht="38" customHeight="1" spans="1:7">
-      <c r="A3" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="G3" s="4"/>
-    </row>
-    <row r="4" ht="38" customHeight="1" spans="1:7">
-      <c r="A4" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="G4" s="4"/>
-    </row>
-    <row r="5" ht="38" customHeight="1" spans="1:7">
-      <c r="A5" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="G5" s="4"/>
-    </row>
-    <row r="6" ht="38" customHeight="1" spans="1:7">
-      <c r="A6" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="G6" s="4"/>
-    </row>
-    <row r="7" ht="38" customHeight="1" spans="1:7">
-      <c r="A7" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="G7" s="4"/>
-    </row>
-    <row r="8" ht="38" customHeight="1" spans="1:7">
-      <c r="A8" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="G8" s="4"/>
-    </row>
-    <row r="9" ht="38" customHeight="1" spans="1:7">
-      <c r="A9" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="G9" s="4"/>
-    </row>
-    <row r="10" ht="38" customHeight="1" spans="1:7">
-      <c r="A10" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="G10" s="4"/>
-    </row>
-    <row r="11" ht="38" customHeight="1" spans="1:7">
-      <c r="A11" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="G11" s="9"/>
-    </row>
-    <row r="12" ht="38" customHeight="1" spans="1:7">
-      <c r="A12" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="G12" s="9"/>
-    </row>
-    <row r="13" ht="38" customHeight="1" spans="1:7">
-      <c r="A13" s="10" t="s">
-        <v>111</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="G13" s="9"/>
-    </row>
-    <row r="14" ht="38" customHeight="1" spans="1:7">
-      <c r="A14" s="10" t="s">
-        <v>111</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F14" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="G14" s="7"/>
-    </row>
-    <row r="15" ht="38" customHeight="1" spans="1:7">
-      <c r="A15" s="10" t="s">
-        <v>111</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F15" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="G15" s="7"/>
-    </row>
-    <row r="16" ht="38" customHeight="1" spans="1:7">
-      <c r="A16" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="C16" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E16" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F16" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="G16" s="7"/>
-    </row>
-    <row r="17" ht="38" customHeight="1" spans="1:7">
-      <c r="A17" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="C17" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E17" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F17" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="G17" s="7"/>
-    </row>
-    <row r="18" ht="38" customHeight="1" spans="1:7">
-      <c r="A18" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="C18" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E18" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F18" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="G18" s="7"/>
-    </row>
-    <row r="19" ht="38" customHeight="1" spans="1:7">
-      <c r="A19" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="C19" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E19" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F19" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="G19" s="7"/>
-    </row>
-    <row r="20" ht="38" customHeight="1" spans="1:7">
-      <c r="A20" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="C20" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E20" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F20" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="G20" s="7"/>
-    </row>
-    <row r="21" ht="38" customHeight="1" spans="1:7">
-      <c r="A21" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="C21" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="D21" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E21" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F21" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="G21" s="7"/>
-    </row>
-    <row r="22" ht="38" customHeight="1" spans="1:7">
-      <c r="A22" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>6</v>
-      </c>
       <c r="C22" s="4" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="G22" s="4"/>
+        <v>18</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H22" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -19688,25 +19892,25 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="7" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="7" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="28.5714285714286" style="1" customWidth="1"/>
     <col min="2" max="2" width="63.5714285714286" customWidth="1"/>
     <col min="3" max="3" width="22.8571428571429" customWidth="1"/>
     <col min="4" max="4" width="16.8571428571429" customWidth="1"/>
-    <col min="5" max="5" width="37.8571428571429" customWidth="1"/>
-    <col min="6" max="6" width="72.5714285714286" customWidth="1"/>
+    <col min="5" max="6" width="37.8571428571429" customWidth="1"/>
+    <col min="7" max="7" width="72.5714285714286" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="31" customHeight="1" spans="1:6">
+    <row r="1" ht="31" customHeight="1" spans="1:7">
       <c r="A1" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>2</v>
@@ -19723,138 +19927,162 @@
       <c r="F1" s="2" t="s">
         <v>6</v>
       </c>
+      <c r="G1" s="2" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="2" ht="41" customHeight="1" spans="1:7">
+    <row r="2" ht="41" customHeight="1" spans="1:8">
       <c r="A2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="H2" s="5"/>
+    </row>
+    <row r="3" ht="129" customHeight="1" spans="1:8">
+      <c r="A3" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" s="4"/>
+      <c r="H3" s="5"/>
+    </row>
+    <row r="4" ht="41" customHeight="1" spans="1:8">
+      <c r="A4" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" s="4"/>
+      <c r="H4" s="5"/>
+    </row>
+    <row r="5" ht="41" customHeight="1" spans="1:8">
+      <c r="A5" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5" s="4"/>
+      <c r="H5" s="5"/>
+    </row>
+    <row r="6" ht="41" customHeight="1" spans="1:8">
+      <c r="A6" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" s="4"/>
+      <c r="H6" s="5"/>
+    </row>
+    <row r="7" ht="41" customHeight="1" spans="1:8">
+      <c r="A7" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G7" s="6"/>
+      <c r="H7" s="5"/>
+    </row>
+    <row r="8" ht="41" customHeight="1" spans="1:6">
+      <c r="A8" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="G2" s="5"/>
-    </row>
-    <row r="3" ht="129" customHeight="1" spans="1:7">
-      <c r="A3" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="F3" s="4"/>
-      <c r="G3" s="5"/>
-    </row>
-    <row r="4" ht="41" customHeight="1" spans="1:7">
-      <c r="A4" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F4" s="4"/>
-      <c r="G4" s="5"/>
-    </row>
-    <row r="5" ht="41" customHeight="1" spans="1:7">
-      <c r="A5" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F5" s="4"/>
-      <c r="G5" s="5"/>
-    </row>
-    <row r="6" ht="41" customHeight="1" spans="1:7">
-      <c r="A6" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F6" s="4"/>
-      <c r="G6" s="5"/>
-    </row>
-    <row r="7" ht="41" customHeight="1" spans="1:7">
-      <c r="A7" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F7" s="6"/>
-      <c r="G7" s="5"/>
-    </row>
-    <row r="8" ht="41" customHeight="1" spans="1:5">
-      <c r="A8" s="4" t="s">
-        <v>6</v>
-      </c>
       <c r="B8" s="4" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>16</v>
+        <v>18</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -19872,7 +20100,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H33" sqref="H33"/>
+      <selection activeCell="K29" sqref="K29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
